--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4663.942369986284</v>
+        <v>-2041.464274420266</v>
       </c>
     </row>
     <row r="7">
@@ -26329,7 +26329,7 @@
         <v>37627.59193600624</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
         <v>37627.59193600625</v>
@@ -26341,13 +26341,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="C4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="D4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="E4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="F4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="G4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="H4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="I4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="J4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="K4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="L4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="M4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="N4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="O4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="P4" t="n">
-        <v>27190.2942010693</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23190.30226506305</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="C6" t="n">
-        <v>-23190.30226506305</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="D6" t="n">
-        <v>-23190.30226506305</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="E6" t="n">
-        <v>10437.29773493695</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="F6" t="n">
-        <v>10437.29773493695</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="G6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="I6" t="n">
-        <v>10437.29773493695</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="J6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="K6" t="n">
-        <v>10437.29773493695</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="L6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="M6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="N6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="O6" t="n">
-        <v>10437.29773493695</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="P6" t="n">
-        <v>10437.29773493694</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.464274420266</v>
+        <v>-2041.464274420264</v>
       </c>
     </row>
     <row r="7">
@@ -26326,7 +26328,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
         <v>37627.59193600625</v>
@@ -26335,7 +26337,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
         <v>37627.59193600625</v>
@@ -26353,7 +26355,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26534,7 +26536,7 @@
         <v>10750.74055314465</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314464</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="H6" t="n">
         <v>10750.74055314465</v>
@@ -26543,7 +26545,7 @@
         <v>10750.74055314465</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314464</v>
+        <v>10750.74055314465</v>
       </c>
       <c r="K6" t="n">
         <v>10750.74055314465</v>
@@ -26561,7 +26563,7 @@
         <v>10750.74055314465</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314464</v>
+        <v>10750.74055314465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.464274420264</v>
+        <v>-128802.4181436853</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="F6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="H6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="I6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="L6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="M6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="N6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314465</v>
+        <v>-4399.933416890119</v>
       </c>
     </row>
   </sheetData>
